--- a/data/trans_bre/P32-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P32-Clase-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,44</t>
+          <t>-2,77; 1,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 2,81</t>
+          <t>-6,39; 2,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 3,71</t>
+          <t>-5,73; 4,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 1,35</t>
+          <t>-6,44; 1,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-89,34; 77,21</t>
+          <t>-86,9; 92,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-77,1; 103,97</t>
+          <t>-77,03; 102,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-81,03; 60,4</t>
+          <t>-83,23; 39,35</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,08</t>
+          <t>-2,72; 2,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 2,8</t>
+          <t>-7,28; 2,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 3,05</t>
+          <t>-4,7; 3,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 3,84</t>
+          <t>-3,63; 3,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-85,83; 117,05</t>
+          <t>-88,14; 94,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,96; 120,44</t>
+          <t>-72,99; 119,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-69,88; 212,94</t>
+          <t>-69,0; 208,64</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 4,83</t>
+          <t>-4,19; 5,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 1,53</t>
+          <t>-6,64; 2,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 11,12</t>
+          <t>-3,21; 10,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 0,82</t>
+          <t>-8,53; 1,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 319,71</t>
+          <t>-100,0; 317,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 45,43</t>
+          <t>-100,0; 85,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 460,31</t>
+          <t>-100,0; 418,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 73,04</t>
+          <t>-100,0; 85,54</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,92</t>
+          <t>-3,7; 0,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,72; -3,71</t>
+          <t>-8,82; -3,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,27; -0,29</t>
+          <t>-5,24; -0,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,55; -2,62</t>
+          <t>-8,88; -2,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 79,12</t>
+          <t>-100,0; 64,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-95,3; -48,58</t>
+          <t>-95,72; -47,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-82,14; 2,39</t>
+          <t>-82,08; 1,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -51,83</t>
+          <t>-99,37; -52,21</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 6,54</t>
+          <t>-2,51; 6,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 0,79</t>
+          <t>-5,9; 0,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,9; -1,54</t>
+          <t>-8,06; -1,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; -0,27</t>
+          <t>-8,92; -0,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-72,36; 558,41</t>
+          <t>-74,1; 645,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-88,37; 33,68</t>
+          <t>-89,1; 32,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -7,06</t>
+          <t>-100,0; -26,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-81,78; 7,37</t>
+          <t>-83,16; -3,08</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -1,11</t>
+          <t>-7,27; -0,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,76; -6,61</t>
+          <t>-19,67; -6,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 0,52</t>
+          <t>-10,13; 0,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 1,67</t>
+          <t>-23,22; 0,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-97,29; -67,79</t>
+          <t>-97,52; -72,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-79,04; 18,02</t>
+          <t>-79,16; 20,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; -0,16</t>
+          <t>-2,3; -0,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -2,95</t>
+          <t>-6,14; -3,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; -0,45</t>
+          <t>-3,58; -0,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,2; -2,32</t>
+          <t>-6,06; -2,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-73,42; 0,01</t>
+          <t>-71,98; -1,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-80,15; -47,02</t>
+          <t>-80,62; -49,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-57,59; -9,44</t>
+          <t>-56,82; -12,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-84,62; -43,65</t>
+          <t>-83,35; -43,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P32-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
